--- a/Reports/ZacksRank/TanzyGrowth.xlsx
+++ b/Reports/ZacksRank/TanzyGrowth.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="120">
   <si>
     <t>LLNW</t>
   </si>
@@ -344,6 +344,45 @@
   </si>
   <si>
     <t>Hold       ($17.76)</t>
+  </si>
+  <si>
+    <t>Jun_15</t>
+  </si>
+  <si>
+    <t>Hold       ($18.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.91)</t>
+  </si>
+  <si>
+    <t>Jun_17</t>
+  </si>
+  <si>
+    <t>Jun_18</t>
+  </si>
+  <si>
+    <t>Hold       ($5.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.64)</t>
   </si>
 </sst>
 </file>
@@ -817,66 +856,78 @@
     <col min="16" max="16" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="true"/>
     <col min="18" max="18" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
     <row ht="16" r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="S1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="T1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="U1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -885,60 +936,69 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="I2" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="J2" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="K2" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="L2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="M2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="N2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="R2" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="S2" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="T2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="U2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -947,60 +1007,69 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H3" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="I3" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="K3" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="L3" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="N3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="O3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="R3" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="S3" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="T3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="U3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1009,60 +1078,69 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>70</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>77</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="J4" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="M4" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1071,60 +1149,69 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="F5" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="G5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="H5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="K5" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="L5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="M5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>25</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>16</v>
       </c>
       <c r="R5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="S5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1133,60 +1220,69 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="F6" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="H6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="I6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="J6" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="K6" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="L6" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L6" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="R6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="S6" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="T6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="U6" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="V6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1195,60 +1291,69 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="F7" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="G7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="I7" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>64</v>
       </c>
       <c r="J7" s="0" t="s">
         <v>64</v>
       </c>
       <c r="K7" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="O7" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="P7" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="Q7" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="R7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="S7" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="T7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="V7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1257,60 +1362,69 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="F8" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="J8" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="K8" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="L8" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="0" t="s">
+      <c r="M8" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="0" t="s">
+      <c r="N8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="O8" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="P8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="N8" s="0" t="s">
+      <c r="Q8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="O8" s="0" t="s">
+      <c r="R8" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="P8" s="0" t="s">
+      <c r="S8" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="Q8" s="0" t="s">
+      <c r="T8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="0" t="s">
+      <c r="U8" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="V8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="T8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Reports/ZacksRank/TanzyGrowth.xlsx
+++ b/Reports/ZacksRank/TanzyGrowth.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6139CD1A-CC4D-D245-8041-9B7F5D3118C2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{6139CD1A-CC4D-D245-8041-9B7F5D3118C2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="data" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="131">
   <si>
     <t>CROX</t>
   </si>
@@ -383,12 +383,43 @@
   </si>
   <si>
     <t>Hold       ($23.15)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Hold       ($17.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.64)</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Hold       ($17.94)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.61)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -405,7 +436,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,6 +459,16 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -439,44 +480,56 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="41">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -493,10 +546,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -531,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -583,7 +636,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -694,21 +747,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -725,7 +778,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -777,14 +830,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -793,573 +846,636 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="3" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1" collapsed="1"/>
-    <col min="6" max="24" width="13.6640625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="10" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Z2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="F3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="U3" t="s">
+      <c r="W3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="1" t="s">
+      <c r="AA3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="AB3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="S4" t="s">
+      <c r="U4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="U4" t="s">
+      <c r="W4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="E5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="F5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="J5" t="s">
+      <c r="L5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="K5" t="s">
+      <c r="M5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="N5" t="s">
+      <c r="P5" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="S5" t="s">
+      <c r="U5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="U5" t="s">
+      <c r="W5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="V5" t="s">
+      <c r="X5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Y5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Z5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="1" t="s">
+      <c r="AA5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="AB5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="E6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="F6" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="G6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
+      <c r="L6" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K6" t="s">
+      <c r="M6" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="N6" t="s">
+      <c r="P6" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="S6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="S6" t="s">
+      <c r="U6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="U6" t="s">
+      <c r="W6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="V6" t="s">
+      <c r="X6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="W6" t="s">
+      <c r="Y6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="X6" s="3" t="s">
+      <c r="Z6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Y6" s="1" t="s">
+      <c r="AA6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="1" t="s">
+      <c r="AB6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row ht="16" r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="E7" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="F7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="N7" t="s">
+      <c r="P7" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="P7" t="s">
+      <c r="R7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="S7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="S7" t="s">
+      <c r="U7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="U7" t="s">
+      <c r="W7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="V7" t="s">
+      <c r="X7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="W7" t="s">
+      <c r="Y7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Z7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="AA7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AB7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Reports/ZacksRank/TanzyGrowth.xlsx
+++ b/Reports/ZacksRank/TanzyGrowth.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/ZacksRank/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{6139CD1A-CC4D-D245-8041-9B7F5D3118C2}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34"/>
+  <xr:revisionPtr documentId="13_ncr:1_{64DD38CF-AB09-8D4A-A55E-F3108B735848}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
     <workbookView windowHeight="19560" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28461" uniqueCount="633">
   <si>
     <t>CROX</t>
   </si>
@@ -385,34 +385,1540 @@
     <t>Hold       ($23.15)</t>
   </si>
   <si>
+    <t>Jun_26</t>
+  </si>
+  <si>
+    <t>Hold       ($17.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.64)</t>
+  </si>
+  <si>
+    <t>Jun_27</t>
+  </si>
+  <si>
+    <t>Hold       ($17.94)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.61)</t>
+  </si>
+  <si>
+    <t>Jul_01</t>
+  </si>
+  <si>
+    <t>Hold       ($17.61)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($22.02)</t>
+  </si>
+  <si>
+    <t>Jul_02</t>
+  </si>
+  <si>
+    <t>Hold       ($17.36)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.40)</t>
+  </si>
+  <si>
+    <t>Jul_08</t>
+  </si>
+  <si>
+    <t>Hold       ($16.74)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.68)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.05)</t>
+  </si>
+  <si>
+    <t>Jul_18</t>
+  </si>
+  <si>
+    <t>Hold       ($17.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.14)</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>Hold       ($94.40)</t>
+  </si>
+  <si>
+    <t>XENE</t>
+  </si>
+  <si>
+    <t>Hold       ($10.05)</t>
+  </si>
+  <si>
+    <t>INCY</t>
+  </si>
+  <si>
+    <t>Hold       ($70.37)</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Hold       ($43.41)</t>
+  </si>
+  <si>
+    <t>EVHC</t>
+  </si>
+  <si>
+    <t>Hold       ($44.08)</t>
+  </si>
+  <si>
+    <t>Jul_20</t>
+  </si>
+  <si>
+    <t>Hold       ($17.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($88.90)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.10)</t>
+  </si>
+  <si>
+    <t>Buy        ($69.20)</t>
+  </si>
+  <si>
+    <t>Sell       ($43.44)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.29)</t>
+  </si>
+  <si>
+    <t>Jul_24</t>
+  </si>
+  <si>
+    <t>Hold       ($17.13)</t>
+  </si>
+  <si>
+    <t>Hold       ($10.89)</t>
+  </si>
+  <si>
+    <t>Sell       ($14.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($91.53)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.99)</t>
+  </si>
+  <si>
+    <t>Sell       ($43.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.24)</t>
+  </si>
+  <si>
+    <t>Jul_29</t>
+  </si>
+  <si>
+    <t>Hold       ($18.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($13.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($25.60)</t>
+  </si>
+  <si>
+    <t>Hold       ($90.56)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.64)</t>
+  </si>
+  <si>
+    <t>Sell       ($42.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.22)</t>
+  </si>
+  <si>
+    <t>Aug_01</t>
+  </si>
+  <si>
+    <t>Hold       ($17.71)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.91)</t>
+  </si>
+  <si>
+    <t>Sell       ($13.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($28.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($93.92)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($65.59)</t>
+  </si>
+  <si>
+    <t>Sell       ($42.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.16)</t>
+  </si>
+  <si>
+    <t>Aug_05</t>
+  </si>
+  <si>
+    <t>Hold       ($17.98)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.40)</t>
+  </si>
+  <si>
+    <t>Sell       ($33.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($96.54)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.39)</t>
+  </si>
+  <si>
+    <t>Aug_12</t>
+  </si>
+  <si>
+    <t>Hold       ($18.53)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.01)</t>
+  </si>
+  <si>
+    <t>Buy        ($14.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($95.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.44)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.67)</t>
+  </si>
+  <si>
+    <t>Aug_14</t>
+  </si>
+  <si>
+    <t>Hold       ($18.64)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.96)</t>
+  </si>
+  <si>
+    <t>Buy        ($14.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($95.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($48.15)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.99)</t>
+  </si>
+  <si>
+    <t>MNK</t>
+  </si>
+  <si>
+    <t>Aug_18</t>
+  </si>
+  <si>
+    <t>Sell       ($9.62)</t>
+  </si>
+  <si>
+    <t>Buy        ($14.35)</t>
+  </si>
+  <si>
+    <t>Buy        ($15.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.88)</t>
+  </si>
+  <si>
+    <t>Hold       ($98.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.96)</t>
+  </si>
+  <si>
+    <t>Buy        ($34.69)</t>
+  </si>
+  <si>
+    <t>Aug_21</t>
+  </si>
+  <si>
+    <t>Hold       ($20.22)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.80)</t>
+  </si>
+  <si>
+    <t>Buy        ($14.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.60)</t>
+  </si>
+  <si>
+    <t>Buy        ($15.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($97.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.19)</t>
+  </si>
+  <si>
+    <t>Buy        ($35.97)</t>
+  </si>
+  <si>
+    <t>SWCH</t>
+  </si>
+  <si>
+    <t>Sell       ($11.48)</t>
+  </si>
+  <si>
+    <t>Aug_26</t>
+  </si>
+  <si>
+    <t>Hold       ($20.44)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.82)</t>
+  </si>
+  <si>
+    <t>Buy        ($14.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.55)</t>
+  </si>
+  <si>
+    <t>Buy        ($16.30)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($97.40)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($70.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($35.48)</t>
+  </si>
+  <si>
+    <t>Sep_02</t>
+  </si>
+  <si>
+    <t>Hold       ($20.66)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.03)</t>
+  </si>
+  <si>
+    <t>Buy        ($17.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.69)</t>
+  </si>
+  <si>
+    <t>Hold       ($96.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($73.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.36)</t>
+  </si>
+  <si>
+    <t>Hold       ($45.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($34.45)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.56)</t>
+  </si>
+  <si>
+    <t>Sep_11</t>
+  </si>
+  <si>
+    <t>Hold       ($20.97)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.11)</t>
+  </si>
+  <si>
+    <t>Buy        ($15.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($18.70)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($93.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($14.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($47.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($45.45)</t>
+  </si>
+  <si>
+    <t>Hold       ($32.04)</t>
+  </si>
+  <si>
+    <t>Sell       ($11.07)</t>
+  </si>
+  <si>
+    <t>Sep_24</t>
+  </si>
+  <si>
+    <t>Hold       ($21.38)</t>
+  </si>
+  <si>
+    <t>Buy        ($15.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.30)</t>
+  </si>
+  <si>
+    <t>Buy        ($18.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($44.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($93.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.78)</t>
+  </si>
+  <si>
+    <t>Buy        ($45.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.33)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.85)</t>
+  </si>
+  <si>
+    <t>Oct_01</t>
+  </si>
+  <si>
+    <t>Hold       ($21.03)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.41)</t>
+  </si>
+  <si>
+    <t>Buy        ($14.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.27)</t>
+  </si>
+  <si>
+    <t>Buy        ($17.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($38.57)</t>
+  </si>
+  <si>
+    <t>Buy        ($95.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($12.34)</t>
+  </si>
+  <si>
+    <t>Hold       ($68.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.57)</t>
+  </si>
+  <si>
+    <t>Buy        ($45.84)</t>
+  </si>
+  <si>
+    <t>Buy        ($29.23)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.64)</t>
+  </si>
+  <si>
+    <t>Oct_06</t>
+  </si>
+  <si>
+    <t>Hold       ($19.13)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.09)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($17.47)</t>
+  </si>
+  <si>
+    <t>Buy        ($36.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($94.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($65.08)</t>
+  </si>
+  <si>
+    <t>Hold       ($46.14)</t>
+  </si>
+  <si>
+    <t>Buy        ($45.95)</t>
+  </si>
+  <si>
+    <t>Buy        ($25.87)</t>
+  </si>
+  <si>
+    <t>Sell       ($10.08)</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Jun_26</t>
-  </si>
-  <si>
-    <t>Hold       ($17.85)</t>
-  </si>
-  <si>
-    <t>Hold       ($10.61)</t>
-  </si>
-  <si>
-    <t>Hold       ($23.64)</t>
-  </si>
-  <si>
-    <t>Jun_27</t>
-  </si>
-  <si>
-    <t>Hold       ($17.94)</t>
-  </si>
-  <si>
-    <t>Buy        ($10.55)</t>
-  </si>
-  <si>
-    <t>Hold       ($13.25)</t>
-  </si>
-  <si>
-    <t>Hold       ($22.61)</t>
+    <t>Oct_22</t>
+  </si>
+  <si>
+    <t>Buy        ($19.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($11.74)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.85)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.15)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.28)</t>
+  </si>
+  <si>
+    <t>Buy        ($65.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($42.64)</t>
+  </si>
+  <si>
+    <t>UN         ($45.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($27.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.14)</t>
+  </si>
+  <si>
+    <t>Nov_04</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($21.07)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($10.35)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.40)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.93)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.56)</t>
+  </si>
+  <si>
+    <t>Hold       ($67.41)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.32)</t>
+  </si>
+  <si>
+    <t>Nov_11</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($25.37)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($15.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.19)</t>
+  </si>
+  <si>
+    <t>Hold       ($88.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.03)</t>
+  </si>
+  <si>
+    <t>Hold       ($40.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.29)</t>
+  </si>
+  <si>
+    <t>Nov_19</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($26.73)</t>
+  </si>
+  <si>
+    <t>Buy        ($10.13)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.01)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($89.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($30.82)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.44)</t>
+  </si>
+  <si>
+    <t>Nov_24</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($25.61)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.87)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.99)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($32.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.63)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.04)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($39.47)</t>
+  </si>
+  <si>
+    <t>Hold       ($26.45)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.84)</t>
+  </si>
+  <si>
+    <t>Dec_02</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($27.80)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.95)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.05)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.97)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.82)</t>
+  </si>
+  <si>
+    <t>Hold       ($94.27)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($40.20)</t>
+  </si>
+  <si>
+    <t>Hold       ($23.79)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.77)</t>
+  </si>
+  <si>
+    <t>Dec_09</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($25.00)</t>
+  </si>
+  <si>
+    <t>Buy        ($9.19)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.16)</t>
+  </si>
+  <si>
+    <t>Hold       ($4.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.21)</t>
+  </si>
+  <si>
+    <t>Hold       ($33.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($86.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.51)</t>
+  </si>
+  <si>
+    <t>Sell       ($39.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.76)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.27)</t>
+  </si>
+  <si>
+    <t>Dec_16</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($25.39)</t>
+  </si>
+  <si>
+    <t>Buy        ($8.30)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.18)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.74)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.51)</t>
+  </si>
+  <si>
+    <t>Hold       ($35.35)</t>
+  </si>
+  <si>
+    <t>Hold       ($85.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($6.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($66.25)</t>
+  </si>
+  <si>
+    <t>Sell       ($36.25)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.20)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.94)</t>
+  </si>
+  <si>
+    <t>Dec_30</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($26.64)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.95)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($3.71)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($37.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($91.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($5.92)</t>
+  </si>
+  <si>
+    <t>Hold       ($62.28)</t>
+  </si>
+  <si>
+    <t>Sell       ($32.81)</t>
+  </si>
+  <si>
+    <t>Sell       ($6.84)</t>
+  </si>
+  <si>
+    <t>Jan_07</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($29.17)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.15)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.89)</t>
+  </si>
+  <si>
+    <t>Hold       ($90.37)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.53)</t>
+  </si>
+  <si>
+    <t>Hold       ($74.21)</t>
+  </si>
+  <si>
+    <t>Sell       ($33.75)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.17)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.48)</t>
+  </si>
+  <si>
+    <t>Jan_13</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($30.96)</t>
+  </si>
+  <si>
+    <t>Buy        ($8.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.20)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.07)</t>
+  </si>
+  <si>
+    <t>Hold       ($16.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($42.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($88.31)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($74.65)</t>
+  </si>
+  <si>
+    <t>Sell       ($34.78)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($20.21)</t>
+  </si>
+  <si>
+    <t>Sell       ($7.68)</t>
+  </si>
+  <si>
+    <t>Jan_21</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($29.39)</t>
+  </si>
+  <si>
+    <t>Buy        ($8.55)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.16)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.26)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.00)</t>
+  </si>
+  <si>
+    <t>Hold       ($43.55)</t>
+  </si>
+  <si>
+    <t>Buy        ($89.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.42)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.79)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($20.63)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.12)</t>
+  </si>
+  <si>
+    <t>Jan_27</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($28.90)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.74)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.08)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($17.19)</t>
+  </si>
+  <si>
+    <t>Buy        ($44.43)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.54)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.92)</t>
+  </si>
+  <si>
+    <t>StrongSell ($79.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.86)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($21.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.06)</t>
+  </si>
+  <si>
+    <t>Jan_31</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($28.72)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.42)</t>
+  </si>
+  <si>
+    <t>Buy        ($5.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($18.82)</t>
+  </si>
+  <si>
+    <t>Buy        ($43.48)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.54)</t>
+  </si>
+  <si>
+    <t>StrongSell ($80.59)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.11)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($21.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.34)</t>
+  </si>
+  <si>
+    <t>Feb_03</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($29.83)</t>
+  </si>
+  <si>
+    <t>Sell       ($29.83)</t>
+  </si>
+  <si>
+    <t>Hold       ($29.83)</t>
+  </si>
+  <si>
+    <t>Buy        ($29.83)</t>
+  </si>
+  <si>
+    <t>StrongSell ($29.83)</t>
+  </si>
+  <si>
+    <t>UN         ($29.83)</t>
+  </si>
+  <si>
+    <t>Feb_07</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($27.11)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.18)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.50)</t>
+  </si>
+  <si>
+    <t>Buy        ($41.46)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.65)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.00)</t>
+  </si>
+  <si>
+    <t>StrongSell ($79.76)</t>
+  </si>
+  <si>
+    <t>Hold       ($36.27)</t>
+  </si>
+  <si>
+    <t>Buy        ($20.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.39)</t>
+  </si>
+  <si>
+    <t>Feb_10</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($27.05)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.57)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.52)</t>
+  </si>
+  <si>
+    <t>Buy        ($42.29)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.67)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.28)</t>
+  </si>
+  <si>
+    <t>StrongSell ($80.87)</t>
+  </si>
+  <si>
+    <t>Sell       ($35.09)</t>
+  </si>
+  <si>
+    <t>Buy        ($20.80)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.38)</t>
+  </si>
+  <si>
+    <t>Feb_13</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($27.04)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.61)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.44)</t>
+  </si>
+  <si>
+    <t>UN         ($3.62)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.45)</t>
+  </si>
+  <si>
+    <t>Buy        ($46.22)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.79)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.78)</t>
+  </si>
+  <si>
+    <t>StrongSell ($81.06)</t>
+  </si>
+  <si>
+    <t>Sell       ($35.12)</t>
+  </si>
+  <si>
+    <t>Buy        ($21.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.67)</t>
+  </si>
+  <si>
+    <t>Feb_17</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($27.86)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.73)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.84)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.66)</t>
+  </si>
+  <si>
+    <t>Buy        ($51.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.85)</t>
+  </si>
+  <si>
+    <t>StrongSell ($84.15)</t>
+  </si>
+  <si>
+    <t>Sell       ($36.72)</t>
+  </si>
+  <si>
+    <t>Buy        ($21.81)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.77)</t>
+  </si>
+  <si>
+    <t>Feb_24</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($28.27)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.39)</t>
+  </si>
+  <si>
+    <t>Buy        ($4.12)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.87)</t>
+  </si>
+  <si>
+    <t>Buy        ($48.32)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.02)</t>
+  </si>
+  <si>
+    <t>Hold       ($7.84)</t>
+  </si>
+  <si>
+    <t>StrongSell ($84.85)</t>
+  </si>
+  <si>
+    <t>Sell       ($35.98)</t>
+  </si>
+  <si>
+    <t>Buy        ($21.49)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.73)</t>
+  </si>
+  <si>
+    <t>Feb_28</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($25.68)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.07)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($21.62)</t>
+  </si>
+  <si>
+    <t>Buy        ($65.57)</t>
+  </si>
+  <si>
+    <t>Hold       ($79.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.18)</t>
+  </si>
+  <si>
+    <t>StrongSell ($86.23)</t>
+  </si>
+  <si>
+    <t>Sell       ($32.91)</t>
+  </si>
+  <si>
+    <t>Buy        ($24.96)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.63)</t>
+  </si>
+  <si>
+    <t>Mar_03</t>
+  </si>
+  <si>
+    <t>Hold       ($25.12)</t>
+  </si>
+  <si>
+    <t>Sell       ($9.28)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.25)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($20.91)</t>
+  </si>
+  <si>
+    <t>Hold       ($69.24)</t>
+  </si>
+  <si>
+    <t>Hold       ($80.10)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.94)</t>
+  </si>
+  <si>
+    <t>StrongSell ($88.17)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($24.91)</t>
+  </si>
+  <si>
+    <t>Buy        ($8.68)</t>
+  </si>
+  <si>
+    <t>Mar_06</t>
+  </si>
+  <si>
+    <t>Hold       ($24.94)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.95)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.16)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.50)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.86)</t>
+  </si>
+  <si>
+    <t>Hold       ($63.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($78.09)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.78)</t>
+  </si>
+  <si>
+    <t>StrongSell ($83.37)</t>
+  </si>
+  <si>
+    <t>Sell       ($30.66)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($21.26)</t>
+  </si>
+  <si>
+    <t>Buy        ($8.33)</t>
+  </si>
+  <si>
+    <t>Mar_10</t>
+  </si>
+  <si>
+    <t>Hold       ($25.18)</t>
+  </si>
+  <si>
+    <t>Sell       ($8.66)</t>
+  </si>
+  <si>
+    <t>Hold       ($8.76)</t>
+  </si>
+  <si>
+    <t>Buy        ($3.41)</t>
+  </si>
+  <si>
+    <t>Hold       ($19.38)</t>
+  </si>
+  <si>
+    <t>Hold       ($64.52)</t>
+  </si>
+  <si>
+    <t>Hold       ($77.58)</t>
+  </si>
+  <si>
+    <t>Hold       ($9.19)</t>
+  </si>
+  <si>
+    <t>StrongSell ($82.12)</t>
+  </si>
+  <si>
+    <t>Sell       ($29.93)</t>
+  </si>
+  <si>
+    <t>StrongBuy  ($21.18)</t>
+  </si>
+  <si>
+    <t>Buy        ($8.07)</t>
   </si>
 </sst>
 </file>
@@ -436,7 +1942,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,6 +1963,291 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
       </patternFill>
     </fill>
     <fill>
@@ -482,7 +2273,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="556">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -518,8 +2309,523 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -838,641 +3144,2409 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:AU14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="15.1640625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="13.6640625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="10.0" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="10.0" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="16.33203125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="38" max="38" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="39" max="39" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="40" max="40" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="42" max="42" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="43" max="43" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="46" max="46" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="50" max="50" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="51" max="51" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="52" max="52" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="53" max="53" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="54" max="54" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="55" max="55" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="56" max="56" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="57" max="57" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="58" max="58" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="59" max="59" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="60" max="60" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="61" max="61" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="62" max="62" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="63" max="63" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="64" max="64" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="65" max="65" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="66" max="66" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="67" max="67" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="68" max="68" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="69" max="69" customWidth="true" width="13.6640625" collapsed="true"/>
+    <col min="70" max="70" customWidth="true" width="10.0" collapsed="true"/>
+    <col min="71" max="71" customWidth="true" width="10.0" collapsed="false"/>
   </cols>
   <sheetData>
-    <row ht="16" r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row ht="16" r="1" spans="1:47" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>126</v>
+        <v>620</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>122</v>
+        <v>607</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>595</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>583</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>571</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>522</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>502</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>489</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="O1" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="R1" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="S1" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>400</v>
+      </c>
+      <c r="U1" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="V1" s="0" t="s">
+        <v>375</v>
+      </c>
+      <c r="W1" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y1" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z1" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA1" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB1" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="AC1" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="AD1" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS1" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT1" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU1" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="AV1" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="AW1" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="AX1" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="AY1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="AZ1" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="BA1" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="BB1" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="BC1" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="BD1" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="BE1" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="BF1" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="BG1" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="BH1" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="BI1" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="S1" s="0" t="s">
+      <c r="BJ1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="T1" s="0" t="s">
+      <c r="BK1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="U1" s="0" t="s">
+      <c r="BL1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="V1" s="0" t="s">
+      <c r="BM1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="0" t="s">
+      <c r="BN1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="0" t="s">
+      <c r="BO1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="Y1" s="0" t="s">
+      <c r="BP1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="0" t="s">
+      <c r="BQ1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row ht="16" r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row ht="16" r="2" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="543" t="s">
+        <v>621</v>
+      </c>
+      <c r="C2" s="530" t="s">
+        <v>608</v>
+      </c>
+      <c r="D2" s="517" t="s">
+        <v>596</v>
+      </c>
+      <c r="E2" s="504" t="s">
+        <v>584</v>
+      </c>
+      <c r="F2" s="491" t="s">
+        <v>572</v>
+      </c>
+      <c r="G2" s="478" t="s">
+        <v>561</v>
+      </c>
+      <c r="H2" s="465" t="s">
+        <v>548</v>
+      </c>
+      <c r="I2" s="452" t="s">
+        <v>536</v>
+      </c>
+      <c r="J2" s="439" t="s">
+        <v>523</v>
+      </c>
+      <c r="K2" s="426" t="s">
+        <v>516</v>
+      </c>
+      <c r="L2" s="413" t="s">
+        <v>503</v>
+      </c>
+      <c r="M2" s="400" t="s">
+        <v>490</v>
+      </c>
+      <c r="N2" s="387" t="s">
+        <v>477</v>
+      </c>
+      <c r="O2" s="374" t="s">
+        <v>464</v>
+      </c>
+      <c r="P2" s="361" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q2" s="348" t="s">
+        <v>439</v>
+      </c>
+      <c r="R2" s="335" t="s">
+        <v>426</v>
+      </c>
+      <c r="S2" s="322" t="s">
+        <v>413</v>
+      </c>
+      <c r="T2" s="309" t="s">
+        <v>401</v>
+      </c>
+      <c r="U2" s="296" t="s">
+        <v>388</v>
+      </c>
+      <c r="V2" s="283" t="s">
+        <v>376</v>
+      </c>
+      <c r="W2" s="270" t="s">
+        <v>364</v>
+      </c>
+      <c r="X2" s="257" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y2" s="244" t="s">
+        <v>338</v>
+      </c>
+      <c r="Z2" s="231" t="s">
+        <v>325</v>
+      </c>
+      <c r="AA2" s="218" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB2" s="205" t="s">
+        <v>299</v>
+      </c>
+      <c r="AC2" s="192" t="s">
+        <v>285</v>
+      </c>
+      <c r="AD2" s="179" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE2" s="166" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF2" s="154" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG2" s="142" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH2" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI2" s="120" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ2" s="109" t="s">
+        <v>203</v>
+      </c>
+      <c r="AK2" s="98" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL2" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="AM2" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="AN2" s="65" t="s">
+        <v>162</v>
+      </c>
+      <c r="AO2" s="59" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP2" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="AQ2" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR2" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS2" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT2" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU2" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="AV2" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="AW2" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="AX2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="AY2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="AZ2" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="BA2" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="BB2" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="BC2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="BD2" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="BE2" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="BF2" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="0" t="s">
+      <c r="BG2" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="Q2" s="0" t="s">
+      <c r="BH2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="0" t="s">
+      <c r="BI2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="BJ2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="BK2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="BL2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="BM2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="BN2" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="0" t="s">
+      <c r="BO2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="0" t="s">
+      <c r="BP2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="Z2" s="0" t="s">
+      <c r="BQ2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="BR2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="BS2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row ht="16" r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row ht="16" r="3" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="B3" s="544" t="s">
+        <v>622</v>
+      </c>
+      <c r="C3" s="531" t="s">
+        <v>609</v>
+      </c>
+      <c r="D3" s="518" t="s">
+        <v>597</v>
+      </c>
+      <c r="E3" s="505" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" s="492" t="s">
+        <v>573</v>
+      </c>
+      <c r="G3" s="479" t="s">
+        <v>562</v>
+      </c>
+      <c r="H3" s="466" t="s">
+        <v>549</v>
+      </c>
+      <c r="I3" s="453" t="s">
+        <v>537</v>
+      </c>
+      <c r="J3" s="440" t="s">
+        <v>524</v>
+      </c>
+      <c r="K3" s="427" t="s">
+        <v>517</v>
+      </c>
+      <c r="L3" s="414" t="s">
+        <v>504</v>
+      </c>
+      <c r="M3" s="401" t="s">
+        <v>491</v>
+      </c>
+      <c r="N3" s="388" t="s">
+        <v>478</v>
+      </c>
+      <c r="O3" s="375" t="s">
+        <v>465</v>
+      </c>
+      <c r="P3" s="362" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q3" s="349" t="s">
+        <v>440</v>
+      </c>
+      <c r="R3" s="336" t="s">
+        <v>427</v>
+      </c>
+      <c r="S3" s="323" t="s">
+        <v>414</v>
+      </c>
+      <c r="T3" s="310" t="s">
+        <v>402</v>
+      </c>
+      <c r="U3" s="297" t="s">
+        <v>389</v>
+      </c>
+      <c r="V3" s="284" t="s">
+        <v>377</v>
+      </c>
+      <c r="W3" s="271" t="s">
+        <v>138</v>
+      </c>
+      <c r="X3" s="258" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y3" s="245" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z3" s="232" t="s">
+        <v>326</v>
+      </c>
+      <c r="AA3" s="219" t="s">
+        <v>312</v>
+      </c>
+      <c r="AB3" s="206" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC3" s="193" t="s">
+        <v>286</v>
+      </c>
+      <c r="AD3" s="180" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE3" s="167" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF3" s="155" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG3" s="143" t="s">
+        <v>236</v>
+      </c>
+      <c r="AH3" s="132" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI3" s="121" t="s">
+        <v>214</v>
+      </c>
+      <c r="AJ3" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="AK3" s="99" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL3" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="AM3" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="AN3" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="AO3" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="AP3" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ3" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR3" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS3" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT3" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="AU3" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="AV3" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="AW3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="AX3" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="AY3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="AZ3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="0" t="s">
+      <c r="BA3" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="BB3" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="BC3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="BD3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="BE3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="BF3" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="BG3" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="Q3" s="0" t="s">
+      <c r="BH3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="0" t="s">
+      <c r="BI3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="BJ3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="T3" s="0" t="s">
+      <c r="BK3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="BL3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="BM3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="BN3" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="0" t="s">
+      <c r="BO3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="0" t="s">
+      <c r="BP3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="1" t="s">
+      <c r="BR3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="1" t="s">
+      <c r="BS3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row ht="16" r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row ht="16" r="4" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="545" t="s">
+        <v>623</v>
+      </c>
+      <c r="C4" s="532" t="s">
+        <v>610</v>
+      </c>
+      <c r="D4" s="519" t="s">
+        <v>598</v>
+      </c>
+      <c r="E4" s="506" t="s">
+        <v>350</v>
+      </c>
+      <c r="F4" s="493" t="s">
+        <v>288</v>
+      </c>
+      <c r="G4" s="480" t="s">
+        <v>563</v>
+      </c>
+      <c r="H4" s="467" t="s">
+        <v>550</v>
+      </c>
+      <c r="I4" s="454" t="s">
+        <v>492</v>
+      </c>
+      <c r="J4" s="441" t="s">
+        <v>525</v>
+      </c>
+      <c r="K4" s="428" t="s">
+        <v>518</v>
+      </c>
+      <c r="L4" s="415" t="s">
+        <v>505</v>
+      </c>
+      <c r="M4" s="402" t="s">
+        <v>492</v>
+      </c>
+      <c r="N4" s="389" t="s">
+        <v>479</v>
+      </c>
+      <c r="O4" s="376" t="s">
+        <v>466</v>
+      </c>
+      <c r="P4" s="363" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q4" s="350" t="s">
+        <v>441</v>
+      </c>
+      <c r="R4" s="337" t="s">
+        <v>428</v>
+      </c>
+      <c r="S4" s="324" t="s">
+        <v>415</v>
+      </c>
+      <c r="T4" s="311" t="s">
+        <v>403</v>
+      </c>
+      <c r="U4" s="298" t="s">
+        <v>390</v>
+      </c>
+      <c r="V4" s="285" t="s">
+        <v>378</v>
+      </c>
+      <c r="W4" s="272" t="s">
+        <v>365</v>
+      </c>
+      <c r="X4" s="259" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y4" s="246" t="s">
+        <v>340</v>
+      </c>
+      <c r="Z4" s="233" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="220" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB4" s="207" t="s">
+        <v>300</v>
+      </c>
+      <c r="AC4" s="194" t="s">
+        <v>287</v>
+      </c>
+      <c r="AD4" s="181" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE4" s="168" t="s">
+        <v>263</v>
+      </c>
+      <c r="AF4" s="156" t="s">
+        <v>248</v>
+      </c>
+      <c r="AG4" s="144" t="s">
+        <v>237</v>
+      </c>
+      <c r="AH4" s="133" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI4" s="122" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ4" s="111" t="s">
+        <v>205</v>
+      </c>
+      <c r="AK4" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" s="89" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM4" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="AN4" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO4" s="61" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP4" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="AQ4" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="AR4" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS4" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="AT4" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="AU4" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="AV4" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="AW4" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="AX4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="AY4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="AZ4" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="BA4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="BB4" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="BC4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="BD4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="BE4" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="BF4" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="BG4" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="BH4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="0" t="s">
+      <c r="BI4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="BJ4" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="T4" s="0" t="s">
+      <c r="BK4" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="BL4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="BM4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="BN4" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="0" t="s">
+      <c r="BO4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="Y4" s="0" t="s">
+      <c r="BP4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" s="0" t="s">
+      <c r="BQ4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="BR4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="BS4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row ht="16" r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row ht="16" r="5" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B5" s="546" t="s">
+        <v>624</v>
+      </c>
+      <c r="C5" s="533" t="s">
+        <v>611</v>
+      </c>
+      <c r="D5" s="520" t="s">
+        <v>599</v>
+      </c>
+      <c r="E5" s="507" t="s">
+        <v>586</v>
+      </c>
+      <c r="F5" s="494" t="s">
+        <v>574</v>
+      </c>
+      <c r="G5" s="481" t="s">
+        <v>564</v>
+      </c>
+      <c r="H5" s="468" t="s">
+        <v>551</v>
+      </c>
+      <c r="I5" s="455" t="s">
+        <v>538</v>
+      </c>
+      <c r="J5" s="442" t="s">
+        <v>526</v>
+      </c>
+      <c r="K5" s="429" t="s">
+        <v>519</v>
+      </c>
+      <c r="L5" s="416" t="s">
+        <v>506</v>
+      </c>
+      <c r="M5" s="403" t="s">
+        <v>493</v>
+      </c>
+      <c r="N5" s="390" t="s">
+        <v>480</v>
+      </c>
+      <c r="O5" s="377" t="s">
+        <v>467</v>
+      </c>
+      <c r="P5" s="364" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q5" s="351" t="s">
+        <v>442</v>
+      </c>
+      <c r="R5" s="338" t="s">
+        <v>429</v>
+      </c>
+      <c r="S5" s="325" t="s">
+        <v>416</v>
+      </c>
+      <c r="T5" s="312" t="s">
+        <v>404</v>
+      </c>
+      <c r="U5" s="299" t="s">
+        <v>391</v>
+      </c>
+      <c r="V5" s="286" t="s">
+        <v>379</v>
+      </c>
+      <c r="W5" s="273" t="s">
+        <v>366</v>
+      </c>
+      <c r="X5" s="260" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y5" s="247" t="s">
+        <v>341</v>
+      </c>
+      <c r="Z5" s="234" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA5" s="221" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB5" s="208" t="s">
+        <v>301</v>
+      </c>
+      <c r="AC5" s="195" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD5" s="182" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE5" s="169" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF5" s="157" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG5" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH5" s="134" t="s">
+        <v>227</v>
+      </c>
+      <c r="AI5" s="123" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ5" s="112" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK5" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL5" s="90" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM5" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="AN5" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO5" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP5" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ5" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="AR5" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS5" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT5" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="AU5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="AV5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="AW5" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="AX5" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="AY5" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="AZ5" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="BA5" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="BB5" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="BC5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="BD5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="BE5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="0" t="s">
+      <c r="BF5" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="P5" s="0" t="s">
+      <c r="BG5" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="Q5" s="0" t="s">
+      <c r="BH5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="0" t="s">
+      <c r="BI5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="BJ5" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="T5" s="0" t="s">
+      <c r="BK5" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="BL5" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="BM5" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="BN5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="X5" s="0" t="s">
+      <c r="BO5" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="0" t="s">
+      <c r="BP5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="0" t="s">
+      <c r="BQ5" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="AA5" s="1" t="s">
+      <c r="BR5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="BS5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row ht="16" r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row ht="16" r="6" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="547" t="s">
+        <v>625</v>
+      </c>
+      <c r="C6" s="534" t="s">
+        <v>612</v>
+      </c>
+      <c r="D6" s="521" t="s">
+        <v>600</v>
+      </c>
+      <c r="E6" s="508" t="s">
+        <v>587</v>
+      </c>
+      <c r="F6" s="495" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" s="482" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="469" t="s">
+        <v>552</v>
+      </c>
+      <c r="I6" s="456" t="s">
+        <v>539</v>
+      </c>
+      <c r="J6" s="443" t="s">
+        <v>527</v>
+      </c>
+      <c r="K6" s="430" t="s">
+        <v>518</v>
+      </c>
+      <c r="L6" s="417" t="s">
+        <v>507</v>
+      </c>
+      <c r="M6" s="404" t="s">
+        <v>494</v>
+      </c>
+      <c r="N6" s="391" t="s">
+        <v>481</v>
+      </c>
+      <c r="O6" s="378" t="s">
+        <v>468</v>
+      </c>
+      <c r="P6" s="365" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q6" s="352" t="s">
+        <v>443</v>
+      </c>
+      <c r="R6" s="339" t="s">
+        <v>430</v>
+      </c>
+      <c r="S6" s="326" t="s">
+        <v>417</v>
+      </c>
+      <c r="T6" s="313" t="s">
+        <v>405</v>
+      </c>
+      <c r="U6" s="300" t="s">
+        <v>392</v>
+      </c>
+      <c r="V6" s="287" t="s">
+        <v>45</v>
+      </c>
+      <c r="W6" s="274" t="s">
+        <v>367</v>
+      </c>
+      <c r="X6" s="261" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y6" s="248" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z6" s="235" t="s">
+        <v>328</v>
+      </c>
+      <c r="AA6" s="222" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB6" s="209" t="s">
+        <v>302</v>
+      </c>
+      <c r="AC6" s="196" t="s">
+        <v>289</v>
+      </c>
+      <c r="AD6" s="183" t="s">
+        <v>276</v>
+      </c>
+      <c r="AE6" s="170" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF6" s="158" t="s">
+        <v>250</v>
+      </c>
+      <c r="AG6" s="146" t="s">
+        <v>238</v>
+      </c>
+      <c r="AH6" s="135" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI6" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="AJ6" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="AK6" s="102" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL6" s="91" t="s">
+        <v>185</v>
+      </c>
+      <c r="AM6" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN6" s="69" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO6" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP6" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="AQ6" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR6" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS6" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="AT6" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="AU6" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="AV6" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="AW6" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="AX6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="AY6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="AZ6" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="BA6" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="BB6" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="BC6" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="BD6" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="BE6" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="0" t="s">
+      <c r="BF6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="0" t="s">
+      <c r="BG6" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="0" t="s">
+      <c r="BH6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="R6" s="0" t="s">
+      <c r="BI6" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="BJ6" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="0" t="s">
+      <c r="BK6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="BL6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="BM6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="BN6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="X6" s="0" t="s">
+      <c r="BO6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="Y6" s="0" t="s">
+      <c r="BP6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="Z6" s="3" t="s">
+      <c r="BQ6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="AA6" s="1" t="s">
+      <c r="BR6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="1" t="s">
+      <c r="BS6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row ht="16" r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row ht="16" r="7" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="548" t="s">
+        <v>626</v>
+      </c>
+      <c r="C7" s="535" t="s">
+        <v>613</v>
+      </c>
+      <c r="D7" s="522" t="s">
+        <v>601</v>
+      </c>
+      <c r="E7" s="509" t="s">
+        <v>588</v>
+      </c>
+      <c r="F7" s="496" t="s">
+        <v>576</v>
+      </c>
+      <c r="G7" s="483" t="s">
+        <v>565</v>
+      </c>
+      <c r="H7" s="470" t="s">
+        <v>553</v>
+      </c>
+      <c r="I7" s="457" t="s">
+        <v>540</v>
+      </c>
+      <c r="J7" s="444" t="s">
+        <v>528</v>
+      </c>
+      <c r="K7" s="431" t="s">
+        <v>519</v>
+      </c>
+      <c r="L7" s="418" t="s">
+        <v>508</v>
+      </c>
+      <c r="M7" s="405" t="s">
+        <v>495</v>
+      </c>
+      <c r="N7" s="392" t="s">
+        <v>482</v>
+      </c>
+      <c r="O7" s="379" t="s">
+        <v>469</v>
+      </c>
+      <c r="P7" s="366" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q7" s="353" t="s">
+        <v>444</v>
+      </c>
+      <c r="R7" s="340" t="s">
+        <v>431</v>
+      </c>
+      <c r="S7" s="327" t="s">
+        <v>418</v>
+      </c>
+      <c r="T7" s="314" t="s">
+        <v>406</v>
+      </c>
+      <c r="U7" s="301" t="s">
+        <v>393</v>
+      </c>
+      <c r="V7" s="288" t="s">
+        <v>380</v>
+      </c>
+      <c r="W7" s="275" t="s">
+        <v>368</v>
+      </c>
+      <c r="X7" s="262" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y7" s="249" t="s">
+        <v>343</v>
+      </c>
+      <c r="Z7" s="236" t="s">
+        <v>329</v>
+      </c>
+      <c r="AA7" s="223" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB7" s="210" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC7" s="197" t="s">
+        <v>290</v>
+      </c>
+      <c r="AD7" s="184" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE7" s="171" t="s">
+        <v>266</v>
+      </c>
+      <c r="AF7" s="159" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG7" s="147" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH7" s="136" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI7" s="125" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ7" s="114" t="s">
+        <v>206</v>
+      </c>
+      <c r="AK7" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL7" s="92" t="s">
+        <v>186</v>
+      </c>
+      <c r="AM7" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN7" s="70" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO7" s="64" t="s">
+        <v>150</v>
+      </c>
+      <c r="AP7" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ7" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="AR7" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS7" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT7" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU7" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="22" t="s">
+      <c r="AV7" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="AW7" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="AX7" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="AY7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="AZ7" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="0" t="s">
+      <c r="BA7" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="BB7" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="BC7" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="BD7" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="BE7" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="O7" s="0" t="s">
+      <c r="BF7" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="P7" s="0" t="s">
+      <c r="BG7" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="Q7" s="0" t="s">
+      <c r="BH7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="R7" s="0" t="s">
+      <c r="BI7" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="BJ7" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="T7" s="0" t="s">
+      <c r="BK7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="BL7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="BM7" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="BN7" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="X7" s="0" t="s">
+      <c r="BO7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="Y7" s="0" t="s">
+      <c r="BP7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="Z7" s="0" t="s">
+      <c r="BQ7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="BR7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="1" t="s">
+      <c r="BS7" s="1" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="549" t="s">
+        <v>627</v>
+      </c>
+      <c r="C8" s="536" t="s">
+        <v>614</v>
+      </c>
+      <c r="D8" s="523" t="s">
+        <v>602</v>
+      </c>
+      <c r="E8" s="510" t="s">
+        <v>589</v>
+      </c>
+      <c r="F8" s="497" t="s">
+        <v>577</v>
+      </c>
+      <c r="G8" s="484" t="s">
+        <v>566</v>
+      </c>
+      <c r="H8" s="471" t="s">
+        <v>554</v>
+      </c>
+      <c r="I8" s="458" t="s">
+        <v>541</v>
+      </c>
+      <c r="J8" s="445" t="s">
+        <v>529</v>
+      </c>
+      <c r="K8" s="432" t="s">
+        <v>518</v>
+      </c>
+      <c r="L8" s="419" t="s">
+        <v>509</v>
+      </c>
+      <c r="M8" s="406" t="s">
+        <v>496</v>
+      </c>
+      <c r="N8" s="393" t="s">
+        <v>483</v>
+      </c>
+      <c r="O8" s="380" t="s">
+        <v>470</v>
+      </c>
+      <c r="P8" s="367" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q8" s="354" t="s">
+        <v>445</v>
+      </c>
+      <c r="R8" s="341" t="s">
+        <v>432</v>
+      </c>
+      <c r="S8" s="328" t="s">
+        <v>419</v>
+      </c>
+      <c r="T8" s="315" t="s">
+        <v>407</v>
+      </c>
+      <c r="U8" s="302" t="s">
+        <v>394</v>
+      </c>
+      <c r="V8" s="289" t="s">
+        <v>381</v>
+      </c>
+      <c r="W8" s="276" t="s">
+        <v>369</v>
+      </c>
+      <c r="X8" s="263" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y8" s="250" t="s">
+        <v>344</v>
+      </c>
+      <c r="Z8" s="237" t="s">
+        <v>330</v>
+      </c>
+      <c r="AA8" s="224" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB8" s="211" t="s">
+        <v>304</v>
+      </c>
+      <c r="AC8" s="198" t="s">
+        <v>291</v>
+      </c>
+      <c r="AD8" s="185" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE8" s="172" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF8" s="160" t="s">
+        <v>252</v>
+      </c>
+      <c r="AG8" s="148" t="s">
+        <v>240</v>
+      </c>
+      <c r="AH8" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI8" s="126" t="s">
+        <v>218</v>
+      </c>
+      <c r="AJ8" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="AK8" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL8" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM8" s="82" t="s">
+        <v>177</v>
+      </c>
+      <c r="AN8" s="71" t="s">
+        <v>166</v>
+      </c>
+      <c r="AO8" s="64" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="550" t="s">
+        <v>628</v>
+      </c>
+      <c r="C9" s="537" t="s">
+        <v>615</v>
+      </c>
+      <c r="D9" s="524" t="s">
+        <v>603</v>
+      </c>
+      <c r="E9" s="511" t="s">
+        <v>590</v>
+      </c>
+      <c r="F9" s="498" t="s">
+        <v>578</v>
+      </c>
+      <c r="G9" s="485" t="s">
+        <v>492</v>
+      </c>
+      <c r="H9" s="472" t="s">
+        <v>555</v>
+      </c>
+      <c r="I9" s="459" t="s">
+        <v>542</v>
+      </c>
+      <c r="J9" s="446" t="s">
+        <v>530</v>
+      </c>
+      <c r="K9" s="433" t="s">
+        <v>518</v>
+      </c>
+      <c r="L9" s="420" t="s">
+        <v>510</v>
+      </c>
+      <c r="M9" s="407" t="s">
+        <v>497</v>
+      </c>
+      <c r="N9" s="394" t="s">
+        <v>484</v>
+      </c>
+      <c r="O9" s="381" t="s">
+        <v>471</v>
+      </c>
+      <c r="P9" s="368" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q9" s="355" t="s">
+        <v>446</v>
+      </c>
+      <c r="R9" s="342" t="s">
+        <v>433</v>
+      </c>
+      <c r="S9" s="329" t="s">
+        <v>420</v>
+      </c>
+      <c r="T9" s="316" t="s">
+        <v>408</v>
+      </c>
+      <c r="U9" s="303" t="s">
+        <v>395</v>
+      </c>
+      <c r="V9" s="290" t="s">
+        <v>382</v>
+      </c>
+      <c r="W9" s="277" t="s">
+        <v>370</v>
+      </c>
+      <c r="X9" s="264" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y9" s="251" t="s">
+        <v>345</v>
+      </c>
+      <c r="Z9" s="238" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9" s="225" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB9" s="212" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="199" t="s">
+        <v>292</v>
+      </c>
+      <c r="AD9" s="186" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE9" s="173" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF9" s="161" t="s">
+        <v>253</v>
+      </c>
+      <c r="AG9" s="149" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH9" s="138" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI9" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ9" s="116" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK9" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL9" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="AM9" s="83" t="s">
+        <v>178</v>
+      </c>
+      <c r="AN9" s="72" t="s">
+        <v>167</v>
+      </c>
+      <c r="AO9" s="64" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A10" s="64" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="551" t="s">
+        <v>629</v>
+      </c>
+      <c r="C10" s="538" t="s">
+        <v>616</v>
+      </c>
+      <c r="D10" s="525" t="s">
+        <v>604</v>
+      </c>
+      <c r="E10" s="512" t="s">
+        <v>591</v>
+      </c>
+      <c r="F10" s="499" t="s">
+        <v>579</v>
+      </c>
+      <c r="G10" s="486" t="s">
+        <v>567</v>
+      </c>
+      <c r="H10" s="473" t="s">
+        <v>556</v>
+      </c>
+      <c r="I10" s="460" t="s">
+        <v>543</v>
+      </c>
+      <c r="J10" s="447" t="s">
+        <v>531</v>
+      </c>
+      <c r="K10" s="434" t="s">
+        <v>520</v>
+      </c>
+      <c r="L10" s="421" t="s">
+        <v>511</v>
+      </c>
+      <c r="M10" s="408" t="s">
+        <v>498</v>
+      </c>
+      <c r="N10" s="395" t="s">
+        <v>485</v>
+      </c>
+      <c r="O10" s="382" t="s">
+        <v>472</v>
+      </c>
+      <c r="P10" s="369" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q10" s="356" t="s">
+        <v>447</v>
+      </c>
+      <c r="R10" s="343" t="s">
+        <v>434</v>
+      </c>
+      <c r="S10" s="330" t="s">
+        <v>421</v>
+      </c>
+      <c r="T10" s="317" t="s">
+        <v>383</v>
+      </c>
+      <c r="U10" s="304" t="s">
+        <v>396</v>
+      </c>
+      <c r="V10" s="291" t="s">
+        <v>383</v>
+      </c>
+      <c r="W10" s="278" t="s">
+        <v>371</v>
+      </c>
+      <c r="X10" s="265" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y10" s="252" t="s">
+        <v>346</v>
+      </c>
+      <c r="Z10" s="239" t="s">
+        <v>331</v>
+      </c>
+      <c r="AA10" s="226" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB10" s="213" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC10" s="200" t="s">
+        <v>293</v>
+      </c>
+      <c r="AD10" s="187" t="s">
+        <v>279</v>
+      </c>
+      <c r="AE10" s="174" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF10" s="162" t="s">
+        <v>254</v>
+      </c>
+      <c r="AG10" s="150" t="s">
+        <v>241</v>
+      </c>
+      <c r="AH10" s="139" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI10" s="128" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ10" s="117" t="s">
+        <v>209</v>
+      </c>
+      <c r="AK10" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL10" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="AM10" s="84" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN10" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO10" s="64" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A11" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="552" t="s">
+        <v>630</v>
+      </c>
+      <c r="C11" s="539" t="s">
+        <v>617</v>
+      </c>
+      <c r="D11" s="526" t="s">
+        <v>448</v>
+      </c>
+      <c r="E11" s="513" t="s">
+        <v>592</v>
+      </c>
+      <c r="F11" s="500" t="s">
+        <v>580</v>
+      </c>
+      <c r="G11" s="487" t="s">
+        <v>568</v>
+      </c>
+      <c r="H11" s="474" t="s">
+        <v>557</v>
+      </c>
+      <c r="I11" s="461" t="s">
+        <v>544</v>
+      </c>
+      <c r="J11" s="448" t="s">
+        <v>532</v>
+      </c>
+      <c r="K11" s="435" t="s">
+        <v>518</v>
+      </c>
+      <c r="L11" s="422" t="s">
+        <v>512</v>
+      </c>
+      <c r="M11" s="409" t="s">
+        <v>499</v>
+      </c>
+      <c r="N11" s="396" t="s">
+        <v>486</v>
+      </c>
+      <c r="O11" s="383" t="s">
+        <v>473</v>
+      </c>
+      <c r="P11" s="370" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q11" s="357" t="s">
+        <v>448</v>
+      </c>
+      <c r="R11" s="344" t="s">
+        <v>435</v>
+      </c>
+      <c r="S11" s="331" t="s">
+        <v>422</v>
+      </c>
+      <c r="T11" s="318" t="s">
+        <v>409</v>
+      </c>
+      <c r="U11" s="305" t="s">
+        <v>397</v>
+      </c>
+      <c r="V11" s="292" t="s">
+        <v>384</v>
+      </c>
+      <c r="W11" s="279" t="s">
+        <v>372</v>
+      </c>
+      <c r="X11" s="266" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y11" s="253" t="s">
+        <v>347</v>
+      </c>
+      <c r="Z11" s="240" t="s">
+        <v>332</v>
+      </c>
+      <c r="AA11" s="227" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB11" s="214" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC11" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="AD11" s="188" t="s">
+        <v>280</v>
+      </c>
+      <c r="AE11" s="175" t="s">
+        <v>270</v>
+      </c>
+      <c r="AF11" s="163" t="s">
+        <v>255</v>
+      </c>
+      <c r="AG11" s="151" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH11" s="140" t="s">
+        <v>232</v>
+      </c>
+      <c r="AI11" s="129" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ11" s="118" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK11" s="107" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL11" s="96" t="s">
+        <v>190</v>
+      </c>
+      <c r="AM11" s="85" t="s">
+        <v>180</v>
+      </c>
+      <c r="AN11" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="AO11" s="64" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="553" t="s">
+        <v>348</v>
+      </c>
+      <c r="C12" s="540" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="527" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12" s="514" t="s">
+        <v>348</v>
+      </c>
+      <c r="F12" s="501" t="s">
+        <v>348</v>
+      </c>
+      <c r="G12" s="488" t="s">
+        <v>348</v>
+      </c>
+      <c r="H12" s="475" t="s">
+        <v>348</v>
+      </c>
+      <c r="I12" s="462" t="s">
+        <v>348</v>
+      </c>
+      <c r="J12" s="449" t="s">
+        <v>348</v>
+      </c>
+      <c r="K12" s="436" t="s">
+        <v>521</v>
+      </c>
+      <c r="L12" s="423" t="s">
+        <v>348</v>
+      </c>
+      <c r="M12" s="410" t="s">
+        <v>348</v>
+      </c>
+      <c r="N12" s="397" t="s">
+        <v>348</v>
+      </c>
+      <c r="O12" s="384" t="s">
+        <v>348</v>
+      </c>
+      <c r="P12" s="371" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q12" s="358" t="s">
+        <v>348</v>
+      </c>
+      <c r="R12" s="345" t="s">
+        <v>348</v>
+      </c>
+      <c r="S12" s="332" t="s">
+        <v>348</v>
+      </c>
+      <c r="T12" s="319" t="s">
+        <v>348</v>
+      </c>
+      <c r="U12" s="306" t="s">
+        <v>348</v>
+      </c>
+      <c r="V12" s="293" t="s">
+        <v>348</v>
+      </c>
+      <c r="W12" s="280" t="s">
+        <v>348</v>
+      </c>
+      <c r="X12" s="267" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y12" s="254" t="s">
+        <v>348</v>
+      </c>
+      <c r="Z12" s="241" t="s">
+        <v>333</v>
+      </c>
+      <c r="AA12" s="228" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB12" s="215" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC12" s="202" t="s">
+        <v>295</v>
+      </c>
+      <c r="AD12" s="189" t="s">
+        <v>281</v>
+      </c>
+      <c r="AE12" s="176" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF12" s="164" t="s">
+        <v>256</v>
+      </c>
+      <c r="AG12" s="152" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH12" s="141" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI12" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ12" s="119" t="s">
+        <v>211</v>
+      </c>
+      <c r="AK12" s="108" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL12" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM12" s="86" t="s">
+        <v>181</v>
+      </c>
+      <c r="AN12" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="AO12" s="64" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="554" t="s">
+        <v>631</v>
+      </c>
+      <c r="C13" s="541" t="s">
+        <v>618</v>
+      </c>
+      <c r="D13" s="528" t="s">
+        <v>605</v>
+      </c>
+      <c r="E13" s="515" t="s">
+        <v>593</v>
+      </c>
+      <c r="F13" s="502" t="s">
+        <v>581</v>
+      </c>
+      <c r="G13" s="489" t="s">
+        <v>569</v>
+      </c>
+      <c r="H13" s="476" t="s">
+        <v>558</v>
+      </c>
+      <c r="I13" s="463" t="s">
+        <v>545</v>
+      </c>
+      <c r="J13" s="450" t="s">
+        <v>533</v>
+      </c>
+      <c r="K13" s="437" t="s">
+        <v>519</v>
+      </c>
+      <c r="L13" s="424" t="s">
+        <v>513</v>
+      </c>
+      <c r="M13" s="411" t="s">
+        <v>500</v>
+      </c>
+      <c r="N13" s="398" t="s">
+        <v>487</v>
+      </c>
+      <c r="O13" s="385" t="s">
+        <v>474</v>
+      </c>
+      <c r="P13" s="372" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q13" s="359" t="s">
+        <v>227</v>
+      </c>
+      <c r="R13" s="346" t="s">
+        <v>436</v>
+      </c>
+      <c r="S13" s="333" t="s">
+        <v>423</v>
+      </c>
+      <c r="T13" s="320" t="s">
+        <v>410</v>
+      </c>
+      <c r="U13" s="307" t="s">
+        <v>398</v>
+      </c>
+      <c r="V13" s="294" t="s">
+        <v>385</v>
+      </c>
+      <c r="W13" s="281" t="s">
+        <v>373</v>
+      </c>
+      <c r="X13" s="268" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y13" s="255" t="s">
+        <v>349</v>
+      </c>
+      <c r="Z13" s="242" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA13" s="229" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB13" s="216" t="s">
+        <v>308</v>
+      </c>
+      <c r="AC13" s="203" t="s">
+        <v>296</v>
+      </c>
+      <c r="AD13" s="190" t="s">
+        <v>282</v>
+      </c>
+      <c r="AE13" s="177" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF13" s="165" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG13" s="153" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A14" s="165" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" s="555" t="s">
+        <v>632</v>
+      </c>
+      <c r="C14" s="542" t="s">
+        <v>619</v>
+      </c>
+      <c r="D14" s="529" t="s">
+        <v>606</v>
+      </c>
+      <c r="E14" s="516" t="s">
+        <v>594</v>
+      </c>
+      <c r="F14" s="503" t="s">
+        <v>582</v>
+      </c>
+      <c r="G14" s="490" t="s">
+        <v>570</v>
+      </c>
+      <c r="H14" s="477" t="s">
+        <v>559</v>
+      </c>
+      <c r="I14" s="464" t="s">
+        <v>546</v>
+      </c>
+      <c r="J14" s="451" t="s">
+        <v>534</v>
+      </c>
+      <c r="K14" s="438" t="s">
+        <v>518</v>
+      </c>
+      <c r="L14" s="425" t="s">
+        <v>514</v>
+      </c>
+      <c r="M14" s="412" t="s">
+        <v>501</v>
+      </c>
+      <c r="N14" s="399" t="s">
+        <v>488</v>
+      </c>
+      <c r="O14" s="386" t="s">
+        <v>475</v>
+      </c>
+      <c r="P14" s="373" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q14" s="360" t="s">
+        <v>449</v>
+      </c>
+      <c r="R14" s="347" t="s">
+        <v>437</v>
+      </c>
+      <c r="S14" s="334" t="s">
+        <v>424</v>
+      </c>
+      <c r="T14" s="321" t="s">
+        <v>411</v>
+      </c>
+      <c r="U14" s="308" t="s">
+        <v>399</v>
+      </c>
+      <c r="V14" s="295" t="s">
+        <v>386</v>
+      </c>
+      <c r="W14" s="282" t="s">
+        <v>374</v>
+      </c>
+      <c r="X14" s="269" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y14" s="256" t="s">
+        <v>350</v>
+      </c>
+      <c r="Z14" s="243" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA14" s="230" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB14" s="217" t="s">
+        <v>309</v>
+      </c>
+      <c r="AC14" s="204" t="s">
+        <v>297</v>
+      </c>
+      <c r="AD14" s="191" t="s">
+        <v>283</v>
+      </c>
+      <c r="AE14" s="178" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF14" s="165"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
